--- a/Statistics/OS2/2020/July/OS2 Week of July 13, 2020.xlsx
+++ b/Statistics/OS2/2020/July/OS2 Week of July 13, 2020.xlsx
@@ -1,25 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/shared/One Stop/Statistics/OS2/2020/July/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chas\Documents\GitHub\onestop-excel-processor\Statistics\OS2\2020\July\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC26D2B8-8183-DD40-A49A-1B376225C7CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FBA6B8-71E3-47AA-AB36-A2CFD00029CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="640" windowWidth="27800" windowHeight="12580" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7185" yWindow="2310" windowWidth="28800" windowHeight="15435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monday" sheetId="6" r:id="rId1"/>
-    <sheet name="Tuesday " sheetId="4" r:id="rId2"/>
+    <sheet name="Tuesday" sheetId="4" r:id="rId2"/>
     <sheet name="Wednesday" sheetId="1" r:id="rId3"/>
     <sheet name="Thursday" sheetId="5" r:id="rId4"/>
     <sheet name="Friday" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -867,13 +878,13 @@
       <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="9"/>
       <c r="B1" s="20" t="s">
         <v>0</v>
@@ -897,7 +908,7 @@
       <c r="M1" s="20"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -938,7 +949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>8</v>
       </c>
@@ -960,7 +971,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>8</v>
       </c>
@@ -982,7 +993,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>8</v>
       </c>
@@ -1004,7 +1015,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>8</v>
       </c>
@@ -1026,7 +1037,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>8</v>
       </c>
@@ -1048,7 +1059,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>8</v>
       </c>
@@ -1070,7 +1081,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>8</v>
       </c>
@@ -1094,7 +1105,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
@@ -1116,7 +1127,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>8</v>
       </c>
@@ -1138,7 +1149,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>8</v>
       </c>
@@ -1160,7 +1171,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>8</v>
       </c>
@@ -1182,7 +1193,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>8</v>
       </c>
@@ -1204,7 +1215,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>8</v>
       </c>
@@ -1226,7 +1237,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>8</v>
       </c>
@@ -1250,7 +1261,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>8</v>
       </c>
@@ -1268,7 +1279,7 @@
       <c r="M17" s="8"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>8</v>
       </c>
@@ -1286,7 +1297,7 @@
       <c r="M18" s="8"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>8</v>
       </c>
@@ -1304,7 +1315,7 @@
       <c r="M19" s="8"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>8</v>
       </c>
@@ -1322,7 +1333,7 @@
       <c r="M20" s="8"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>8</v>
       </c>
@@ -1340,7 +1351,7 @@
       <c r="M21" s="8"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
         <v>8</v>
       </c>
@@ -1358,7 +1369,7 @@
       <c r="M22" s="8"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>8</v>
       </c>
@@ -1376,7 +1387,7 @@
       <c r="M23" s="8"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
         <v>8</v>
       </c>
@@ -1394,7 +1405,7 @@
       <c r="M24" s="8"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>8</v>
       </c>
@@ -1412,7 +1423,7 @@
       <c r="M25" s="8"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>8</v>
       </c>
@@ -1430,7 +1441,7 @@
       <c r="M26" s="8"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
         <v>8</v>
       </c>
@@ -1448,7 +1459,7 @@
       <c r="M27" s="8"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>8</v>
       </c>
@@ -1466,7 +1477,7 @@
       <c r="M28" s="8"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
         <v>8</v>
       </c>
@@ -1484,7 +1495,7 @@
       <c r="M29" s="8"/>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
         <v>8</v>
       </c>
@@ -1494,7 +1505,7 @@
       <c r="K30" s="2"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>8</v>
       </c>
@@ -1504,7 +1515,7 @@
       <c r="K31" s="2"/>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
         <v>8</v>
       </c>
@@ -1522,7 +1533,7 @@
       <c r="M32" s="8"/>
       <c r="N32" s="2"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
         <v>8</v>
       </c>
@@ -1540,7 +1551,7 @@
       <c r="M33" s="8"/>
       <c r="N33" s="2"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
         <v>8</v>
       </c>
@@ -1550,7 +1561,7 @@
       <c r="K34" s="7"/>
       <c r="N34" s="2"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>8</v>
       </c>
@@ -1560,7 +1571,7 @@
       <c r="K35" s="7"/>
       <c r="N35" s="2"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
         <v>8</v>
       </c>
@@ -1570,7 +1581,7 @@
       <c r="K36" s="7"/>
       <c r="N36" s="2"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>8</v>
       </c>
@@ -1580,7 +1591,7 @@
       <c r="K37" s="7"/>
       <c r="N37" s="2"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
         <v>8</v>
       </c>
@@ -1590,7 +1601,7 @@
       <c r="K38" s="7"/>
       <c r="N38" s="2"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
         <v>8</v>
       </c>
@@ -1600,7 +1611,7 @@
       <c r="K39" s="7"/>
       <c r="N39" s="2"/>
     </row>
-    <row r="40" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="19" t="s">
         <v>8</v>
       </c>
@@ -1610,7 +1621,7 @@
       <c r="K40" s="7"/>
       <c r="N40" s="2"/>
     </row>
-    <row r="41" spans="1:14" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
         <v>9</v>
       </c>
@@ -1632,7 +1643,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>9</v>
       </c>
@@ -1647,7 +1658,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>9</v>
       </c>
@@ -1662,7 +1673,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
         <v>9</v>
       </c>
@@ -1677,7 +1688,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
         <v>9</v>
       </c>
@@ -1692,7 +1703,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
         <v>9</v>
       </c>
@@ -1707,7 +1718,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>9</v>
       </c>
@@ -1731,7 +1742,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
         <v>9</v>
       </c>
@@ -1746,7 +1757,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
         <v>9</v>
       </c>
@@ -1761,7 +1772,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
         <v>9</v>
       </c>
@@ -1779,7 +1790,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
         <v>9</v>
       </c>
@@ -1794,7 +1805,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
         <v>9</v>
       </c>
@@ -1804,7 +1815,7 @@
       <c r="K52" s="2"/>
       <c r="N52" s="2"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
         <v>9</v>
       </c>
@@ -1814,7 +1825,7 @@
       <c r="K53" s="2"/>
       <c r="N53" s="2"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
         <v>9</v>
       </c>
@@ -1824,7 +1835,7 @@
       <c r="K54" s="2"/>
       <c r="N54" s="2"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
         <v>9</v>
       </c>
@@ -1834,7 +1845,7 @@
       <c r="K55" s="2"/>
       <c r="N55" s="2"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
         <v>9</v>
       </c>
@@ -1844,7 +1855,7 @@
       <c r="K56" s="2"/>
       <c r="N56" s="2"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
         <v>9</v>
       </c>
@@ -1854,7 +1865,7 @@
       <c r="K57" s="2"/>
       <c r="N57" s="2"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
         <v>9</v>
       </c>
@@ -1864,7 +1875,7 @@
       <c r="K58" s="2"/>
       <c r="N58" s="2"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
         <v>9</v>
       </c>
@@ -1874,7 +1885,7 @@
       <c r="K59" s="2"/>
       <c r="N59" s="2"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
         <v>9</v>
       </c>
@@ -1884,7 +1895,7 @@
       <c r="K60" s="2"/>
       <c r="N60" s="2"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="18" t="s">
         <v>9</v>
       </c>
@@ -1894,7 +1905,7 @@
       <c r="K61" s="2"/>
       <c r="N61" s="2"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
         <v>9</v>
       </c>
@@ -1904,7 +1915,7 @@
       <c r="K62" s="2"/>
       <c r="N62" s="2"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
         <v>9</v>
       </c>
@@ -1914,7 +1925,7 @@
       <c r="K63" s="2"/>
       <c r="N63" s="2"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
         <v>9</v>
       </c>
@@ -1924,7 +1935,7 @@
       <c r="K64" s="2"/>
       <c r="N64" s="2"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
         <v>9</v>
       </c>
@@ -1934,7 +1945,7 @@
       <c r="K65" s="2"/>
       <c r="N65" s="2"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
         <v>9</v>
       </c>
@@ -1944,7 +1955,7 @@
       <c r="K66" s="2"/>
       <c r="N66" s="2"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="18" t="s">
         <v>9</v>
       </c>
@@ -1954,7 +1965,7 @@
       <c r="K67" s="2"/>
       <c r="N67" s="2"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
         <v>9</v>
       </c>
@@ -1964,7 +1975,7 @@
       <c r="K68" s="2"/>
       <c r="N68" s="2"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="18" t="s">
         <v>9</v>
       </c>
@@ -1974,7 +1985,7 @@
       <c r="K69" s="2"/>
       <c r="N69" s="2"/>
     </row>
-    <row r="70" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="18" t="s">
         <v>9</v>
       </c>
@@ -1984,7 +1995,7 @@
       <c r="K70" s="2"/>
       <c r="N70" s="2"/>
     </row>
-    <row r="71" spans="1:14" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
         <v>3</v>
       </c>
@@ -2006,7 +2017,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
         <v>3</v>
       </c>
@@ -2016,7 +2027,7 @@
       <c r="K72" s="2"/>
       <c r="N72" s="2"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
         <v>3</v>
       </c>
@@ -2026,7 +2037,7 @@
       <c r="K73" s="2"/>
       <c r="N73" s="2"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
         <v>3</v>
       </c>
@@ -2036,7 +2047,7 @@
       <c r="K74" s="2"/>
       <c r="N74" s="2"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
         <v>3</v>
       </c>
@@ -2046,7 +2057,7 @@
       <c r="K75" s="2"/>
       <c r="N75" s="2"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
         <v>3</v>
       </c>
@@ -2056,7 +2067,7 @@
       <c r="K76" s="2"/>
       <c r="N76" s="2"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
         <v>3</v>
       </c>
@@ -2066,7 +2077,7 @@
       <c r="K77" s="2"/>
       <c r="N77" s="2"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
         <v>3</v>
       </c>
@@ -2076,7 +2087,7 @@
       <c r="K78" s="2"/>
       <c r="N78" s="2"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="16" t="s">
         <v>3</v>
       </c>
@@ -2085,7 +2096,7 @@
       <c r="H79" s="2"/>
       <c r="N79" s="2"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>0</v>
       </c>
@@ -2099,7 +2110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>4</v>
       </c>
@@ -2140,7 +2151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>8</v>
       </c>
@@ -2197,7 +2208,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -2254,7 +2265,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>3</v>
       </c>
@@ -2311,7 +2322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>10</v>
       </c>
@@ -2396,13 +2407,13 @@
       <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="9"/>
       <c r="B1" s="20" t="s">
         <v>0</v>
@@ -2426,7 +2437,7 @@
       <c r="M1" s="20"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -2467,7 +2478,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>8</v>
       </c>
@@ -2492,7 +2503,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>8</v>
       </c>
@@ -2517,7 +2528,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>8</v>
       </c>
@@ -2542,7 +2553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>8</v>
       </c>
@@ -2564,7 +2575,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>8</v>
       </c>
@@ -2586,7 +2597,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>8</v>
       </c>
@@ -2608,7 +2619,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>8</v>
       </c>
@@ -2630,7 +2641,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
@@ -2658,7 +2669,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>8</v>
       </c>
@@ -2680,7 +2691,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>8</v>
       </c>
@@ -2702,7 +2713,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>8</v>
       </c>
@@ -2724,7 +2735,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>8</v>
       </c>
@@ -2746,7 +2757,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>8</v>
       </c>
@@ -2768,7 +2779,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>8</v>
       </c>
@@ -2790,7 +2801,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>8</v>
       </c>
@@ -2808,7 +2819,7 @@
       <c r="M17" s="8"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>8</v>
       </c>
@@ -2826,7 +2837,7 @@
       <c r="M18" s="8"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>8</v>
       </c>
@@ -2844,7 +2855,7 @@
       <c r="M19" s="8"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>8</v>
       </c>
@@ -2862,7 +2873,7 @@
       <c r="M20" s="8"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>8</v>
       </c>
@@ -2880,7 +2891,7 @@
       <c r="M21" s="8"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
         <v>8</v>
       </c>
@@ -2898,7 +2909,7 @@
       <c r="M22" s="8"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>8</v>
       </c>
@@ -2916,7 +2927,7 @@
       <c r="M23" s="8"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
         <v>8</v>
       </c>
@@ -2934,7 +2945,7 @@
       <c r="M24" s="8"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>8</v>
       </c>
@@ -2952,7 +2963,7 @@
       <c r="M25" s="8"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>8</v>
       </c>
@@ -2970,7 +2981,7 @@
       <c r="M26" s="8"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
         <v>8</v>
       </c>
@@ -2988,7 +2999,7 @@
       <c r="M27" s="8"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>8</v>
       </c>
@@ -3006,7 +3017,7 @@
       <c r="M28" s="8"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
         <v>8</v>
       </c>
@@ -3024,7 +3035,7 @@
       <c r="M29" s="8"/>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
         <v>8</v>
       </c>
@@ -3034,7 +3045,7 @@
       <c r="K30" s="2"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>8</v>
       </c>
@@ -3044,7 +3055,7 @@
       <c r="K31" s="2"/>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
         <v>8</v>
       </c>
@@ -3062,7 +3073,7 @@
       <c r="M32" s="8"/>
       <c r="N32" s="2"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
         <v>8</v>
       </c>
@@ -3080,7 +3091,7 @@
       <c r="M33" s="8"/>
       <c r="N33" s="2"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
         <v>8</v>
       </c>
@@ -3090,7 +3101,7 @@
       <c r="K34" s="7"/>
       <c r="N34" s="2"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>8</v>
       </c>
@@ -3100,7 +3111,7 @@
       <c r="K35" s="7"/>
       <c r="N35" s="2"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
         <v>8</v>
       </c>
@@ -3110,7 +3121,7 @@
       <c r="K36" s="7"/>
       <c r="N36" s="2"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>8</v>
       </c>
@@ -3120,7 +3131,7 @@
       <c r="K37" s="7"/>
       <c r="N37" s="2"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
         <v>8</v>
       </c>
@@ -3130,7 +3141,7 @@
       <c r="K38" s="7"/>
       <c r="N38" s="2"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
         <v>8</v>
       </c>
@@ -3140,7 +3151,7 @@
       <c r="K39" s="7"/>
       <c r="N39" s="2"/>
     </row>
-    <row r="40" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="19" t="s">
         <v>8</v>
       </c>
@@ -3150,7 +3161,7 @@
       <c r="K40" s="7"/>
       <c r="N40" s="2"/>
     </row>
-    <row r="41" spans="1:14" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
         <v>9</v>
       </c>
@@ -3172,7 +3183,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>9</v>
       </c>
@@ -3187,7 +3198,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>9</v>
       </c>
@@ -3202,7 +3213,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
         <v>9</v>
       </c>
@@ -3217,7 +3228,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
         <v>9</v>
       </c>
@@ -3232,7 +3243,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
         <v>9</v>
       </c>
@@ -3247,7 +3258,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>9</v>
       </c>
@@ -3265,7 +3276,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
         <v>9</v>
       </c>
@@ -3275,7 +3286,7 @@
       <c r="K48" s="7"/>
       <c r="N48" s="2"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
         <v>9</v>
       </c>
@@ -3285,7 +3296,7 @@
       <c r="K49" s="7"/>
       <c r="N49" s="2"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
         <v>9</v>
       </c>
@@ -3295,7 +3306,7 @@
       <c r="K50" s="7"/>
       <c r="N50" s="2"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
         <v>9</v>
       </c>
@@ -3305,7 +3316,7 @@
       <c r="K51" s="2"/>
       <c r="N51" s="2"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
         <v>9</v>
       </c>
@@ -3315,7 +3326,7 @@
       <c r="K52" s="2"/>
       <c r="N52" s="2"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
         <v>9</v>
       </c>
@@ -3325,7 +3336,7 @@
       <c r="K53" s="2"/>
       <c r="N53" s="2"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
         <v>9</v>
       </c>
@@ -3335,7 +3346,7 @@
       <c r="K54" s="2"/>
       <c r="N54" s="2"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
         <v>9</v>
       </c>
@@ -3345,7 +3356,7 @@
       <c r="K55" s="2"/>
       <c r="N55" s="2"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
         <v>9</v>
       </c>
@@ -3355,7 +3366,7 @@
       <c r="K56" s="2"/>
       <c r="N56" s="2"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
         <v>9</v>
       </c>
@@ -3365,7 +3376,7 @@
       <c r="K57" s="2"/>
       <c r="N57" s="2"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
         <v>9</v>
       </c>
@@ -3375,7 +3386,7 @@
       <c r="K58" s="2"/>
       <c r="N58" s="2"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
         <v>9</v>
       </c>
@@ -3385,7 +3396,7 @@
       <c r="K59" s="2"/>
       <c r="N59" s="2"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
         <v>9</v>
       </c>
@@ -3395,7 +3406,7 @@
       <c r="K60" s="2"/>
       <c r="N60" s="2"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="18" t="s">
         <v>9</v>
       </c>
@@ -3405,7 +3416,7 @@
       <c r="K61" s="2"/>
       <c r="N61" s="2"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
         <v>9</v>
       </c>
@@ -3415,7 +3426,7 @@
       <c r="K62" s="2"/>
       <c r="N62" s="2"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
         <v>9</v>
       </c>
@@ -3425,7 +3436,7 @@
       <c r="K63" s="2"/>
       <c r="N63" s="2"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
         <v>9</v>
       </c>
@@ -3435,7 +3446,7 @@
       <c r="K64" s="2"/>
       <c r="N64" s="2"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
         <v>9</v>
       </c>
@@ -3445,7 +3456,7 @@
       <c r="K65" s="2"/>
       <c r="N65" s="2"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
         <v>9</v>
       </c>
@@ -3455,7 +3466,7 @@
       <c r="K66" s="2"/>
       <c r="N66" s="2"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="18" t="s">
         <v>9</v>
       </c>
@@ -3465,7 +3476,7 @@
       <c r="K67" s="2"/>
       <c r="N67" s="2"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
         <v>9</v>
       </c>
@@ -3475,7 +3486,7 @@
       <c r="K68" s="2"/>
       <c r="N68" s="2"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="18" t="s">
         <v>9</v>
       </c>
@@ -3485,7 +3496,7 @@
       <c r="K69" s="2"/>
       <c r="N69" s="2"/>
     </row>
-    <row r="70" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="18" t="s">
         <v>9</v>
       </c>
@@ -3495,7 +3506,7 @@
       <c r="K70" s="2"/>
       <c r="N70" s="2"/>
     </row>
-    <row r="71" spans="1:14" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
         <v>3</v>
       </c>
@@ -3517,7 +3528,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
         <v>3</v>
       </c>
@@ -3532,7 +3543,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
         <v>3</v>
       </c>
@@ -3547,7 +3558,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
         <v>3</v>
       </c>
@@ -3557,7 +3568,7 @@
       <c r="K74" s="2"/>
       <c r="N74" s="2"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
         <v>3</v>
       </c>
@@ -3567,7 +3578,7 @@
       <c r="K75" s="2"/>
       <c r="N75" s="2"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
         <v>3</v>
       </c>
@@ -3577,7 +3588,7 @@
       <c r="K76" s="2"/>
       <c r="N76" s="2"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
         <v>3</v>
       </c>
@@ -3587,7 +3598,7 @@
       <c r="K77" s="2"/>
       <c r="N77" s="2"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
         <v>3</v>
       </c>
@@ -3597,7 +3608,7 @@
       <c r="K78" s="2"/>
       <c r="N78" s="2"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="16" t="s">
         <v>3</v>
       </c>
@@ -3606,7 +3617,7 @@
       <c r="H79" s="2"/>
       <c r="N79" s="2"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>0</v>
       </c>
@@ -3620,7 +3631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>4</v>
       </c>
@@ -3661,7 +3672,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>8</v>
       </c>
@@ -3718,7 +3729,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -3775,7 +3786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>3</v>
       </c>
@@ -3832,7 +3843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>10</v>
       </c>
@@ -3912,18 +3923,18 @@
   </sheetPr>
   <dimension ref="A1:Q85"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="9"/>
       <c r="B1" s="20" t="s">
         <v>0</v>
@@ -3947,7 +3958,7 @@
       <c r="M1" s="20"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -3988,7 +3999,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>8</v>
       </c>
@@ -4013,7 +4024,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>8</v>
       </c>
@@ -4038,7 +4049,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>8</v>
       </c>
@@ -4063,7 +4074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>8</v>
       </c>
@@ -4085,7 +4096,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>8</v>
       </c>
@@ -4107,7 +4118,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>8</v>
       </c>
@@ -4131,7 +4142,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>8</v>
       </c>
@@ -4153,7 +4164,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
@@ -4177,7 +4188,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>8</v>
       </c>
@@ -4199,7 +4210,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>8</v>
       </c>
@@ -4221,7 +4232,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>8</v>
       </c>
@@ -4243,7 +4254,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>8</v>
       </c>
@@ -4265,7 +4276,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>8</v>
       </c>
@@ -4287,7 +4298,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>8</v>
       </c>
@@ -4309,7 +4320,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>8</v>
       </c>
@@ -4331,7 +4342,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>8</v>
       </c>
@@ -4353,7 +4364,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>8</v>
       </c>
@@ -4375,7 +4386,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>8</v>
       </c>
@@ -4393,7 +4404,7 @@
       <c r="M20" s="8"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>8</v>
       </c>
@@ -4411,7 +4422,7 @@
       <c r="M21" s="8"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
         <v>8</v>
       </c>
@@ -4429,7 +4440,7 @@
       <c r="M22" s="8"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>8</v>
       </c>
@@ -4447,7 +4458,7 @@
       <c r="M23" s="8"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
         <v>8</v>
       </c>
@@ -4465,7 +4476,7 @@
       <c r="M24" s="8"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>8</v>
       </c>
@@ -4483,7 +4494,7 @@
       <c r="M25" s="8"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>8</v>
       </c>
@@ -4501,7 +4512,7 @@
       <c r="M26" s="8"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
         <v>8</v>
       </c>
@@ -4519,7 +4530,7 @@
       <c r="M27" s="8"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>8</v>
       </c>
@@ -4537,7 +4548,7 @@
       <c r="M28" s="8"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
         <v>8</v>
       </c>
@@ -4555,7 +4566,7 @@
       <c r="M29" s="8"/>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
         <v>8</v>
       </c>
@@ -4565,7 +4576,7 @@
       <c r="K30" s="2"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>8</v>
       </c>
@@ -4575,7 +4586,7 @@
       <c r="K31" s="2"/>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
         <v>8</v>
       </c>
@@ -4593,7 +4604,7 @@
       <c r="M32" s="8"/>
       <c r="N32" s="2"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
         <v>8</v>
       </c>
@@ -4611,7 +4622,7 @@
       <c r="M33" s="8"/>
       <c r="N33" s="2"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
         <v>8</v>
       </c>
@@ -4621,7 +4632,7 @@
       <c r="K34" s="7"/>
       <c r="N34" s="2"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>8</v>
       </c>
@@ -4631,7 +4642,7 @@
       <c r="K35" s="7"/>
       <c r="N35" s="2"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
         <v>8</v>
       </c>
@@ -4641,7 +4652,7 @@
       <c r="K36" s="7"/>
       <c r="N36" s="2"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>8</v>
       </c>
@@ -4651,7 +4662,7 @@
       <c r="K37" s="7"/>
       <c r="N37" s="2"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
         <v>8</v>
       </c>
@@ -4661,7 +4672,7 @@
       <c r="K38" s="7"/>
       <c r="N38" s="2"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
         <v>8</v>
       </c>
@@ -4671,7 +4682,7 @@
       <c r="K39" s="7"/>
       <c r="N39" s="2"/>
     </row>
-    <row r="40" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="19" t="s">
         <v>8</v>
       </c>
@@ -4681,7 +4692,7 @@
       <c r="K40" s="7"/>
       <c r="N40" s="2"/>
     </row>
-    <row r="41" spans="1:14" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
         <v>9</v>
       </c>
@@ -4703,7 +4714,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>9</v>
       </c>
@@ -4721,7 +4732,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>9</v>
       </c>
@@ -4736,7 +4747,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
         <v>9</v>
       </c>
@@ -4754,7 +4765,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
         <v>9</v>
       </c>
@@ -4769,7 +4780,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
         <v>9</v>
       </c>
@@ -4784,7 +4795,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>9</v>
       </c>
@@ -4794,7 +4805,7 @@
       <c r="K47" s="7"/>
       <c r="N47" s="2"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
         <v>9</v>
       </c>
@@ -4804,7 +4815,7 @@
       <c r="K48" s="7"/>
       <c r="N48" s="2"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
         <v>9</v>
       </c>
@@ -4814,7 +4825,7 @@
       <c r="K49" s="7"/>
       <c r="N49" s="2"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
         <v>9</v>
       </c>
@@ -4824,7 +4835,7 @@
       <c r="K50" s="7"/>
       <c r="N50" s="2"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
         <v>9</v>
       </c>
@@ -4834,7 +4845,7 @@
       <c r="K51" s="2"/>
       <c r="N51" s="2"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
         <v>9</v>
       </c>
@@ -4844,7 +4855,7 @@
       <c r="K52" s="2"/>
       <c r="N52" s="2"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
         <v>9</v>
       </c>
@@ -4854,7 +4865,7 @@
       <c r="K53" s="2"/>
       <c r="N53" s="2"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
         <v>9</v>
       </c>
@@ -4864,7 +4875,7 @@
       <c r="K54" s="2"/>
       <c r="N54" s="2"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
         <v>9</v>
       </c>
@@ -4874,7 +4885,7 @@
       <c r="K55" s="2"/>
       <c r="N55" s="2"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
         <v>9</v>
       </c>
@@ -4884,7 +4895,7 @@
       <c r="K56" s="2"/>
       <c r="N56" s="2"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
         <v>9</v>
       </c>
@@ -4894,7 +4905,7 @@
       <c r="K57" s="2"/>
       <c r="N57" s="2"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
         <v>9</v>
       </c>
@@ -4904,7 +4915,7 @@
       <c r="K58" s="2"/>
       <c r="N58" s="2"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
         <v>9</v>
       </c>
@@ -4914,7 +4925,7 @@
       <c r="K59" s="2"/>
       <c r="N59" s="2"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
         <v>9</v>
       </c>
@@ -4924,7 +4935,7 @@
       <c r="K60" s="2"/>
       <c r="N60" s="2"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="18" t="s">
         <v>9</v>
       </c>
@@ -4934,7 +4945,7 @@
       <c r="K61" s="2"/>
       <c r="N61" s="2"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
         <v>9</v>
       </c>
@@ -4944,7 +4955,7 @@
       <c r="K62" s="2"/>
       <c r="N62" s="2"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
         <v>9</v>
       </c>
@@ -4954,7 +4965,7 @@
       <c r="K63" s="2"/>
       <c r="N63" s="2"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
         <v>9</v>
       </c>
@@ -4964,7 +4975,7 @@
       <c r="K64" s="2"/>
       <c r="N64" s="2"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
         <v>9</v>
       </c>
@@ -4974,7 +4985,7 @@
       <c r="K65" s="2"/>
       <c r="N65" s="2"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
         <v>9</v>
       </c>
@@ -4984,7 +4995,7 @@
       <c r="K66" s="2"/>
       <c r="N66" s="2"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="18" t="s">
         <v>9</v>
       </c>
@@ -4994,7 +5005,7 @@
       <c r="K67" s="2"/>
       <c r="N67" s="2"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
         <v>9</v>
       </c>
@@ -5004,7 +5015,7 @@
       <c r="K68" s="2"/>
       <c r="N68" s="2"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="18" t="s">
         <v>9</v>
       </c>
@@ -5014,7 +5025,7 @@
       <c r="K69" s="2"/>
       <c r="N69" s="2"/>
     </row>
-    <row r="70" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="18" t="s">
         <v>9</v>
       </c>
@@ -5024,7 +5035,7 @@
       <c r="K70" s="2"/>
       <c r="N70" s="2"/>
     </row>
-    <row r="71" spans="1:14" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
         <v>3</v>
       </c>
@@ -5042,7 +5053,7 @@
       <c r="M71" s="13"/>
       <c r="N71" s="14"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
         <v>3</v>
       </c>
@@ -5052,7 +5063,7 @@
       <c r="K72" s="2"/>
       <c r="N72" s="2"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
         <v>3</v>
       </c>
@@ -5062,7 +5073,7 @@
       <c r="K73" s="2"/>
       <c r="N73" s="2"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
         <v>3</v>
       </c>
@@ -5072,7 +5083,7 @@
       <c r="K74" s="2"/>
       <c r="N74" s="2"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
         <v>3</v>
       </c>
@@ -5082,7 +5093,7 @@
       <c r="K75" s="2"/>
       <c r="N75" s="2"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
         <v>3</v>
       </c>
@@ -5092,7 +5103,7 @@
       <c r="K76" s="2"/>
       <c r="N76" s="2"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
         <v>3</v>
       </c>
@@ -5102,7 +5113,7 @@
       <c r="K77" s="2"/>
       <c r="N77" s="2"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
         <v>3</v>
       </c>
@@ -5112,7 +5123,7 @@
       <c r="K78" s="2"/>
       <c r="N78" s="2"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="16" t="s">
         <v>3</v>
       </c>
@@ -5121,7 +5132,7 @@
       <c r="H79" s="2"/>
       <c r="N79" s="2"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>0</v>
       </c>
@@ -5135,7 +5146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>4</v>
       </c>
@@ -5176,7 +5187,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>8</v>
       </c>
@@ -5233,7 +5244,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -5290,7 +5301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>3</v>
       </c>
@@ -5347,7 +5358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>10</v>
       </c>
@@ -5432,13 +5443,13 @@
       <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="9"/>
       <c r="B1" s="20" t="s">
         <v>0</v>
@@ -5462,7 +5473,7 @@
       <c r="M1" s="20"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -5503,7 +5514,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>8</v>
       </c>
@@ -5528,7 +5539,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>8</v>
       </c>
@@ -5553,7 +5564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>8</v>
       </c>
@@ -5578,7 +5589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>8</v>
       </c>
@@ -5600,7 +5611,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>8</v>
       </c>
@@ -5624,7 +5635,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>8</v>
       </c>
@@ -5648,7 +5659,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>8</v>
       </c>
@@ -5670,7 +5681,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
@@ -5694,7 +5705,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>8</v>
       </c>
@@ -5716,7 +5727,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>8</v>
       </c>
@@ -5740,7 +5751,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>8</v>
       </c>
@@ -5762,7 +5773,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>8</v>
       </c>
@@ -5784,7 +5795,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>8</v>
       </c>
@@ -5806,7 +5817,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>8</v>
       </c>
@@ -5828,7 +5839,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>8</v>
       </c>
@@ -5850,7 +5861,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>8</v>
       </c>
@@ -5872,7 +5883,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>8</v>
       </c>
@@ -5890,7 +5901,7 @@
       <c r="M19" s="8"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>8</v>
       </c>
@@ -5908,7 +5919,7 @@
       <c r="M20" s="8"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>8</v>
       </c>
@@ -5926,7 +5937,7 @@
       <c r="M21" s="8"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
         <v>8</v>
       </c>
@@ -5944,7 +5955,7 @@
       <c r="M22" s="8"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>8</v>
       </c>
@@ -5962,7 +5973,7 @@
       <c r="M23" s="8"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
         <v>8</v>
       </c>
@@ -5980,7 +5991,7 @@
       <c r="M24" s="8"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>8</v>
       </c>
@@ -5998,7 +6009,7 @@
       <c r="M25" s="8"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>8</v>
       </c>
@@ -6016,7 +6027,7 @@
       <c r="M26" s="8"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
         <v>8</v>
       </c>
@@ -6034,7 +6045,7 @@
       <c r="M27" s="8"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>8</v>
       </c>
@@ -6052,7 +6063,7 @@
       <c r="M28" s="8"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
         <v>8</v>
       </c>
@@ -6070,7 +6081,7 @@
       <c r="M29" s="8"/>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
         <v>8</v>
       </c>
@@ -6080,7 +6091,7 @@
       <c r="K30" s="2"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>8</v>
       </c>
@@ -6090,7 +6101,7 @@
       <c r="K31" s="2"/>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
         <v>8</v>
       </c>
@@ -6108,7 +6119,7 @@
       <c r="M32" s="8"/>
       <c r="N32" s="2"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
         <v>8</v>
       </c>
@@ -6126,7 +6137,7 @@
       <c r="M33" s="8"/>
       <c r="N33" s="2"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
         <v>8</v>
       </c>
@@ -6136,7 +6147,7 @@
       <c r="K34" s="7"/>
       <c r="N34" s="2"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>8</v>
       </c>
@@ -6146,7 +6157,7 @@
       <c r="K35" s="7"/>
       <c r="N35" s="2"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
         <v>8</v>
       </c>
@@ -6156,7 +6167,7 @@
       <c r="K36" s="7"/>
       <c r="N36" s="2"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>8</v>
       </c>
@@ -6166,7 +6177,7 @@
       <c r="K37" s="7"/>
       <c r="N37" s="2"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
         <v>8</v>
       </c>
@@ -6176,7 +6187,7 @@
       <c r="K38" s="7"/>
       <c r="N38" s="2"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
         <v>8</v>
       </c>
@@ -6186,7 +6197,7 @@
       <c r="K39" s="7"/>
       <c r="N39" s="2"/>
     </row>
-    <row r="40" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="19" t="s">
         <v>8</v>
       </c>
@@ -6196,7 +6207,7 @@
       <c r="K40" s="7"/>
       <c r="N40" s="2"/>
     </row>
-    <row r="41" spans="1:14" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
         <v>9</v>
       </c>
@@ -6218,7 +6229,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>9</v>
       </c>
@@ -6233,7 +6244,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>9</v>
       </c>
@@ -6248,7 +6259,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
         <v>9</v>
       </c>
@@ -6263,7 +6274,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
         <v>9</v>
       </c>
@@ -6278,7 +6289,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
         <v>9</v>
       </c>
@@ -6288,7 +6299,7 @@
       <c r="K46" s="7"/>
       <c r="N46" s="2"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>9</v>
       </c>
@@ -6298,7 +6309,7 @@
       <c r="K47" s="7"/>
       <c r="N47" s="2"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
         <v>9</v>
       </c>
@@ -6308,7 +6319,7 @@
       <c r="K48" s="7"/>
       <c r="N48" s="2"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
         <v>9</v>
       </c>
@@ -6318,7 +6329,7 @@
       <c r="K49" s="7"/>
       <c r="N49" s="2"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
         <v>9</v>
       </c>
@@ -6328,7 +6339,7 @@
       <c r="K50" s="7"/>
       <c r="N50" s="2"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
         <v>9</v>
       </c>
@@ -6338,7 +6349,7 @@
       <c r="K51" s="2"/>
       <c r="N51" s="2"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
         <v>9</v>
       </c>
@@ -6348,7 +6359,7 @@
       <c r="K52" s="2"/>
       <c r="N52" s="2"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
         <v>9</v>
       </c>
@@ -6358,7 +6369,7 @@
       <c r="K53" s="2"/>
       <c r="N53" s="2"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
         <v>9</v>
       </c>
@@ -6368,7 +6379,7 @@
       <c r="K54" s="2"/>
       <c r="N54" s="2"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
         <v>9</v>
       </c>
@@ -6378,7 +6389,7 @@
       <c r="K55" s="2"/>
       <c r="N55" s="2"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
         <v>9</v>
       </c>
@@ -6388,7 +6399,7 @@
       <c r="K56" s="2"/>
       <c r="N56" s="2"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
         <v>9</v>
       </c>
@@ -6398,7 +6409,7 @@
       <c r="K57" s="2"/>
       <c r="N57" s="2"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
         <v>9</v>
       </c>
@@ -6408,7 +6419,7 @@
       <c r="K58" s="2"/>
       <c r="N58" s="2"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
         <v>9</v>
       </c>
@@ -6418,7 +6429,7 @@
       <c r="K59" s="2"/>
       <c r="N59" s="2"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
         <v>9</v>
       </c>
@@ -6428,7 +6439,7 @@
       <c r="K60" s="2"/>
       <c r="N60" s="2"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="18" t="s">
         <v>9</v>
       </c>
@@ -6438,7 +6449,7 @@
       <c r="K61" s="2"/>
       <c r="N61" s="2"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
         <v>9</v>
       </c>
@@ -6448,7 +6459,7 @@
       <c r="K62" s="2"/>
       <c r="N62" s="2"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
         <v>9</v>
       </c>
@@ -6458,7 +6469,7 @@
       <c r="K63" s="2"/>
       <c r="N63" s="2"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
         <v>9</v>
       </c>
@@ -6468,7 +6479,7 @@
       <c r="K64" s="2"/>
       <c r="N64" s="2"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
         <v>9</v>
       </c>
@@ -6478,7 +6489,7 @@
       <c r="K65" s="2"/>
       <c r="N65" s="2"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
         <v>9</v>
       </c>
@@ -6488,7 +6499,7 @@
       <c r="K66" s="2"/>
       <c r="N66" s="2"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="18" t="s">
         <v>9</v>
       </c>
@@ -6498,7 +6509,7 @@
       <c r="K67" s="2"/>
       <c r="N67" s="2"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
         <v>9</v>
       </c>
@@ -6508,7 +6519,7 @@
       <c r="K68" s="2"/>
       <c r="N68" s="2"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="18" t="s">
         <v>9</v>
       </c>
@@ -6518,7 +6529,7 @@
       <c r="K69" s="2"/>
       <c r="N69" s="2"/>
     </row>
-    <row r="70" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="18" t="s">
         <v>9</v>
       </c>
@@ -6528,7 +6539,7 @@
       <c r="K70" s="2"/>
       <c r="N70" s="2"/>
     </row>
-    <row r="71" spans="1:14" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
         <v>3</v>
       </c>
@@ -6550,7 +6561,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
         <v>3</v>
       </c>
@@ -6560,7 +6571,7 @@
       <c r="K72" s="2"/>
       <c r="N72" s="2"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
         <v>3</v>
       </c>
@@ -6570,7 +6581,7 @@
       <c r="K73" s="2"/>
       <c r="N73" s="2"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
         <v>3</v>
       </c>
@@ -6580,7 +6591,7 @@
       <c r="K74" s="2"/>
       <c r="N74" s="2"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
         <v>3</v>
       </c>
@@ -6590,7 +6601,7 @@
       <c r="K75" s="2"/>
       <c r="N75" s="2"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
         <v>3</v>
       </c>
@@ -6600,7 +6611,7 @@
       <c r="K76" s="2"/>
       <c r="N76" s="2"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
         <v>3</v>
       </c>
@@ -6610,7 +6621,7 @@
       <c r="K77" s="2"/>
       <c r="N77" s="2"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
         <v>3</v>
       </c>
@@ -6620,7 +6631,7 @@
       <c r="K78" s="2"/>
       <c r="N78" s="2"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="16" t="s">
         <v>3</v>
       </c>
@@ -6629,7 +6640,7 @@
       <c r="H79" s="2"/>
       <c r="N79" s="2"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>0</v>
       </c>
@@ -6643,7 +6654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>4</v>
       </c>
@@ -6684,7 +6695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>8</v>
       </c>
@@ -6741,7 +6752,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -6798,7 +6809,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>3</v>
       </c>
@@ -6855,7 +6866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>10</v>
       </c>
@@ -6935,18 +6946,18 @@
   </sheetPr>
   <dimension ref="A1:Q85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N53" sqref="N53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="9"/>
       <c r="B1" s="20" t="s">
         <v>0</v>
@@ -6970,7 +6981,7 @@
       <c r="M1" s="20"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -7011,7 +7022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>8</v>
       </c>
@@ -7036,7 +7047,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>8</v>
       </c>
@@ -7061,7 +7072,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>8</v>
       </c>
@@ -7086,7 +7097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>8</v>
       </c>
@@ -7110,7 +7121,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>8</v>
       </c>
@@ -7132,7 +7143,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>8</v>
       </c>
@@ -7154,7 +7165,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>8</v>
       </c>
@@ -7176,7 +7187,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
@@ -7200,7 +7211,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>8</v>
       </c>
@@ -7222,7 +7233,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>8</v>
       </c>
@@ -7244,7 +7255,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>8</v>
       </c>
@@ -7266,7 +7277,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>8</v>
       </c>
@@ -7288,7 +7299,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>8</v>
       </c>
@@ -7310,7 +7321,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>8</v>
       </c>
@@ -7328,7 +7339,7 @@
       <c r="M16" s="8"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>8</v>
       </c>
@@ -7346,7 +7357,7 @@
       <c r="M17" s="8"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>8</v>
       </c>
@@ -7364,7 +7375,7 @@
       <c r="M18" s="8"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>8</v>
       </c>
@@ -7382,7 +7393,7 @@
       <c r="M19" s="8"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>8</v>
       </c>
@@ -7400,7 +7411,7 @@
       <c r="M20" s="8"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>8</v>
       </c>
@@ -7418,7 +7429,7 @@
       <c r="M21" s="8"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
         <v>8</v>
       </c>
@@ -7436,7 +7447,7 @@
       <c r="M22" s="8"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>8</v>
       </c>
@@ -7454,7 +7465,7 @@
       <c r="M23" s="8"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
         <v>8</v>
       </c>
@@ -7472,7 +7483,7 @@
       <c r="M24" s="8"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>8</v>
       </c>
@@ -7490,7 +7501,7 @@
       <c r="M25" s="8"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>8</v>
       </c>
@@ -7508,7 +7519,7 @@
       <c r="M26" s="8"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
         <v>8</v>
       </c>
@@ -7526,7 +7537,7 @@
       <c r="M27" s="8"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>8</v>
       </c>
@@ -7544,7 +7555,7 @@
       <c r="M28" s="8"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
         <v>8</v>
       </c>
@@ -7562,7 +7573,7 @@
       <c r="M29" s="8"/>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
         <v>8</v>
       </c>
@@ -7572,7 +7583,7 @@
       <c r="K30" s="2"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>8</v>
       </c>
@@ -7582,7 +7593,7 @@
       <c r="K31" s="2"/>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
         <v>8</v>
       </c>
@@ -7600,7 +7611,7 @@
       <c r="M32" s="8"/>
       <c r="N32" s="2"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
         <v>8</v>
       </c>
@@ -7618,7 +7629,7 @@
       <c r="M33" s="8"/>
       <c r="N33" s="2"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
         <v>8</v>
       </c>
@@ -7628,7 +7639,7 @@
       <c r="K34" s="7"/>
       <c r="N34" s="2"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>8</v>
       </c>
@@ -7638,7 +7649,7 @@
       <c r="K35" s="7"/>
       <c r="N35" s="2"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
         <v>8</v>
       </c>
@@ -7648,7 +7659,7 @@
       <c r="K36" s="7"/>
       <c r="N36" s="2"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>8</v>
       </c>
@@ -7658,7 +7669,7 @@
       <c r="K37" s="7"/>
       <c r="N37" s="2"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
         <v>8</v>
       </c>
@@ -7668,7 +7679,7 @@
       <c r="K38" s="7"/>
       <c r="N38" s="2"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
         <v>8</v>
       </c>
@@ -7678,7 +7689,7 @@
       <c r="K39" s="7"/>
       <c r="N39" s="2"/>
     </row>
-    <row r="40" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="19" t="s">
         <v>8</v>
       </c>
@@ -7688,7 +7699,7 @@
       <c r="K40" s="7"/>
       <c r="N40" s="2"/>
     </row>
-    <row r="41" spans="1:14" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
         <v>9</v>
       </c>
@@ -7710,7 +7721,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>9</v>
       </c>
@@ -7725,7 +7736,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>9</v>
       </c>
@@ -7740,7 +7751,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
         <v>9</v>
       </c>
@@ -7755,7 +7766,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
         <v>9</v>
       </c>
@@ -7770,7 +7781,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
         <v>9</v>
       </c>
@@ -7785,7 +7796,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>9</v>
       </c>
@@ -7795,7 +7806,7 @@
       <c r="K47" s="7"/>
       <c r="N47" s="2"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
         <v>9</v>
       </c>
@@ -7805,7 +7816,7 @@
       <c r="K48" s="7"/>
       <c r="N48" s="2"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
         <v>9</v>
       </c>
@@ -7815,7 +7826,7 @@
       <c r="K49" s="7"/>
       <c r="N49" s="2"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
         <v>9</v>
       </c>
@@ -7825,7 +7836,7 @@
       <c r="K50" s="7"/>
       <c r="N50" s="2"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
         <v>9</v>
       </c>
@@ -7835,7 +7846,7 @@
       <c r="K51" s="2"/>
       <c r="N51" s="2"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
         <v>9</v>
       </c>
@@ -7845,7 +7856,7 @@
       <c r="K52" s="2"/>
       <c r="N52" s="2"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
         <v>9</v>
       </c>
@@ -7855,7 +7866,7 @@
       <c r="K53" s="2"/>
       <c r="N53" s="2"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
         <v>9</v>
       </c>
@@ -7865,7 +7876,7 @@
       <c r="K54" s="2"/>
       <c r="N54" s="2"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
         <v>9</v>
       </c>
@@ -7875,7 +7886,7 @@
       <c r="K55" s="2"/>
       <c r="N55" s="2"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
         <v>9</v>
       </c>
@@ -7885,7 +7896,7 @@
       <c r="K56" s="2"/>
       <c r="N56" s="2"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
         <v>9</v>
       </c>
@@ -7895,7 +7906,7 @@
       <c r="K57" s="2"/>
       <c r="N57" s="2"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
         <v>9</v>
       </c>
@@ -7905,7 +7916,7 @@
       <c r="K58" s="2"/>
       <c r="N58" s="2"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
         <v>9</v>
       </c>
@@ -7915,7 +7926,7 @@
       <c r="K59" s="2"/>
       <c r="N59" s="2"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
         <v>9</v>
       </c>
@@ -7925,7 +7936,7 @@
       <c r="K60" s="2"/>
       <c r="N60" s="2"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="18" t="s">
         <v>9</v>
       </c>
@@ -7935,7 +7946,7 @@
       <c r="K61" s="2"/>
       <c r="N61" s="2"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
         <v>9</v>
       </c>
@@ -7945,7 +7956,7 @@
       <c r="K62" s="2"/>
       <c r="N62" s="2"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
         <v>9</v>
       </c>
@@ -7955,7 +7966,7 @@
       <c r="K63" s="2"/>
       <c r="N63" s="2"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
         <v>9</v>
       </c>
@@ -7965,7 +7976,7 @@
       <c r="K64" s="2"/>
       <c r="N64" s="2"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
         <v>9</v>
       </c>
@@ -7975,7 +7986,7 @@
       <c r="K65" s="2"/>
       <c r="N65" s="2"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
         <v>9</v>
       </c>
@@ -7985,7 +7996,7 @@
       <c r="K66" s="2"/>
       <c r="N66" s="2"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="18" t="s">
         <v>9</v>
       </c>
@@ -7995,7 +8006,7 @@
       <c r="K67" s="2"/>
       <c r="N67" s="2"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
         <v>9</v>
       </c>
@@ -8005,7 +8016,7 @@
       <c r="K68" s="2"/>
       <c r="N68" s="2"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="18" t="s">
         <v>9</v>
       </c>
@@ -8015,7 +8026,7 @@
       <c r="K69" s="2"/>
       <c r="N69" s="2"/>
     </row>
-    <row r="70" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="18" t="s">
         <v>9</v>
       </c>
@@ -8025,7 +8036,7 @@
       <c r="K70" s="2"/>
       <c r="N70" s="2"/>
     </row>
-    <row r="71" spans="1:14" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
         <v>3</v>
       </c>
@@ -8047,7 +8058,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
         <v>3</v>
       </c>
@@ -8057,7 +8068,7 @@
       <c r="K72" s="2"/>
       <c r="N72" s="2"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
         <v>3</v>
       </c>
@@ -8067,7 +8078,7 @@
       <c r="K73" s="2"/>
       <c r="N73" s="2"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
         <v>3</v>
       </c>
@@ -8077,7 +8088,7 @@
       <c r="K74" s="2"/>
       <c r="N74" s="2"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
         <v>3</v>
       </c>
@@ -8087,7 +8098,7 @@
       <c r="K75" s="2"/>
       <c r="N75" s="2"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
         <v>3</v>
       </c>
@@ -8097,7 +8108,7 @@
       <c r="K76" s="2"/>
       <c r="N76" s="2"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
         <v>3</v>
       </c>
@@ -8107,7 +8118,7 @@
       <c r="K77" s="2"/>
       <c r="N77" s="2"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
         <v>3</v>
       </c>
@@ -8117,7 +8128,7 @@
       <c r="K78" s="2"/>
       <c r="N78" s="2"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="16" t="s">
         <v>3</v>
       </c>
@@ -8126,7 +8137,7 @@
       <c r="H79" s="2"/>
       <c r="N79" s="2"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>0</v>
       </c>
@@ -8140,7 +8151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>4</v>
       </c>
@@ -8181,7 +8192,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>8</v>
       </c>
@@ -8238,7 +8249,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -8295,7 +8306,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>3</v>
       </c>
@@ -8352,7 +8363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>10</v>
       </c>
